--- a/biology/Biochimie/Glucokinase/Glucokinase.xlsx
+++ b/biology/Biochimie/Glucokinase/Glucokinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La glucokinase est une phosphotransférase qui catalyse la réaction :
-La glucokinase bactérienne est spécifique au glucose (EC 2.7.1.2), de même que celle des vertébrés, qui est une isoforme d'hexokinase (EC 2.7.1.1), appelée de ce fait hexokinase D ou hexokinase type IV[3]. La glucokinase des mammifères est exprimée au niveau du foie et des cellules β des îlots de langerhans dans le pancréas.
+La glucokinase bactérienne est spécifique au glucose (EC 2.7.1.2), de même que celle des vertébrés, qui est une isoforme d'hexokinase (EC 2.7.1.1), appelée de ce fait hexokinase D ou hexokinase type IV. La glucokinase des mammifères est exprimée au niveau du foie et des cellules β des îlots de langerhans dans le pancréas.
 Cette enzyme est caractérisée par :
 une faible affinité pour le glucose qui se traduit par une constante de semi-saturation beaucoup plus élevée (10 mM) que celles observées chez les trois autres isoenzymes ;
 une faible coopérativité positive avec le glucose (constante de Hill de 1,5), qu’on ne peut pas expliquer par les mécanismes classiques de coopérativité parce qu’il s’agit d’une enzyme monomérique avec un seul site de liaison au glucose. Dans la mesure où elle ne suit pas l’équation de Michaelis-Menten, on ne peut parler d’une constante de Michaelis ;
